--- a/downloaded_images.xlsx
+++ b/downloaded_images.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,357 +441,136 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>logo2020b-png</t>
+          <t>tr?id=3070145839930627&amp;ev=PageView&amp;noscript=1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Logo/logo2020b-png.ashx?h=66&amp;w=280&amp;la=en&amp;hash=A5D2D2CAF1E25A5C3D4850F718088851</t>
+          <t>https://www.facebook.com/tr?id=3070145839930627&amp;ev=PageView&amp;noscript=1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>downloaded_images/logo2020b-png.jpg</t>
+          <t>downloaded_images/tr?id=3070145839930627&amp;ev=PageView&amp;noscript=1.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The-Cabinet_downsized-jpg</t>
+          <t>PAP-Logo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Banner/The-Cabinet_downsized-jpg.ashx?h=530&amp;w=1440&amp;la=en&amp;hash=DB61DEDFDF567C3177CF5ADBFEED70B5</t>
+          <t>https://s3-ap-southeast-1.amazonaws.com/pap-dr-wp/2019/10/PAP-Logo.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>downloaded_images/The-Cabinet_downsized-jpg.jpg</t>
+          <t>downloaded_images/PAP-Logo.jpg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lawrence-Wong_Aug-18</t>
+          <t>Mohd-Fahmi-Bin-Aliman-1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/Lawrence-Wong_Aug-18.ashx?h=186&amp;w=138&amp;la=en&amp;hash=96F34AA1EFC5358215224A8C9E269006</t>
+          <t>https://s3-ap-southeast-1.amazonaws.com/pap-dr-wp/2020/06/Mohd-Fahmi-Bin-Aliman-1.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>downloaded_images/Lawrence-Wong_Aug-18.jpg</t>
+          <t>downloaded_images/Mohd-Fahmi-Bin-Aliman-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mr-LEE-Hsien-Loong</t>
+          <t>Edwin-Tong-Chun-Fai</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/Mr-LEE-Hsien-Loong/Mr-LEE-Hsien-Loong.ashx?h=187&amp;w=138&amp;la=en&amp;hash=DD8EC1197D821BA8935EBB9F9C4E5DEB</t>
+          <t>https://s3-ap-southeast-1.amazonaws.com/pap-dr-wp/2020/04/Edwin-Tong-Chun-Fai.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>downloaded_images/Mr-LEE-Hsien-Loong.jpg</t>
+          <t>downloaded_images/Edwin-Tong-Chun-Fai.jpg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Min-Gan-jpg</t>
+          <t>Seah-Kian-Peng</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/Min-Gan-jpg.ashx?h=181&amp;w=134&amp;la=en&amp;hash=707BACBD39DE13E774C2BD5C7EE42887</t>
+          <t>https://s3-ap-southeast-1.amazonaws.com/pap-dr-wp/2020/04/Seah-Kian-Peng.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>downloaded_images/Min-Gan-jpg.jpg</t>
+          <t>downloaded_images/Seah-Kian-Peng.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DPM_HengSweeKeat_CVphoto-2-jpg</t>
+          <t>Dr-Tan-See-Leng-1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/DPM_HengSweeKeat_CVphoto-2-jpg.ashx?h=189&amp;w=150&amp;la=en&amp;hash=2041715283143AE37C5ADCE9313608CB</t>
+          <t>https://s3-ap-southeast-1.amazonaws.com/pap-dr-wp/2020/06/Dr-Tan-See-Leng-1.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>downloaded_images/DPM_HengSweeKeat_CVphoto-2-jpg.jpg</t>
+          <t>downloaded_images/Dr-Tan-See-Leng-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mr-TEO-Chee-Hean</t>
+          <t>Mohd-Fahmi-Bin-Aliman-1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/Mr-TEO-Chee-Hean.ashx?h=187&amp;w=138&amp;la=en&amp;hash=05BDCA255ACEE43AE13164A61FAAB59B</t>
+          <t>https://s3-ap-southeast-1.amazonaws.com/pap-dr-wp/2020/06/Mohd-Fahmi-Bin-Aliman-1.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>downloaded_images/Mr-TEO-Chee-Hean.jpg</t>
+          <t>downloaded_images/Mohd-Fahmi-Bin-Aliman-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dr-NG-Eng-Hen</t>
+          <t>Mohd-Fahmi-Bin-Aliman</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/Dr-NG-Eng-Hen.ashx?h=187&amp;w=138&amp;la=en&amp;hash=C35535E743606D2F7E7F4AAC49BEF54C</t>
+          <t>https://s3-ap-southeast-1.amazonaws.com/pap-dr-wp/2020/06/Mohd-Fahmi-Bin-Aliman.jpg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>downloaded_images/Dr-NG-Eng-Hen.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Dr-Vivian-BALAKRISHNAN-jpg</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/Dr-Vivian-BALAKRISHNAN-jpg.ashx?h=189&amp;w=140&amp;la=en&amp;hash=D0673B3953475DD375E58CEA1625FB6C</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>downloaded_images/Dr-Vivian-BALAKRISHNAN-jpg.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Shan_0</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/Shan_0.ashx?h=187&amp;w=138&amp;la=en&amp;hash=D0B6D3782DDFB36D9C70942B8BF9786A</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>downloaded_images/Shan_0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1344997637338_0</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/1344997637338_0.ashx?h=189&amp;w=140&amp;la=en&amp;hash=12ACF5CC0A95EDB5D14188936CF9FAD0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>downloaded_images/1344997637338_0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1378711047103_0</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/1378711047103_0.ashx?h=180&amp;w=139&amp;la=en&amp;hash=D569E89E5B2BDEF84361D06D3D66F9D1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>downloaded_images/1378711047103_0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Mr-Masagos_Apr-2023-jpg</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/Mr-Masagos_Apr-2023-jpg.ashx?h=189&amp;w=140&amp;la=en&amp;hash=89A58E8EE075DFBD8A95A59AE6BD1BE2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>downloaded_images/Mr-Masagos_Apr-2023-jpg.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Min-Ong-Ye-Kung</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/oyk1/Min-Ong-Ye-Kung.ashx?h=189&amp;w=171&amp;la=en&amp;hash=2C4D62FBEC97212891F79D91F4A3CD6F</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>downloaded_images/Min-Ong-Ye-Kung.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Min-Desmond-Lee_May2022-png</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/Min-Desmond-Lee_May2022-png.ashx?h=179&amp;w=140&amp;la=en&amp;hash=9F495BB63A4E7FA0157000BDC3B6FF27</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>downloaded_images/Min-Desmond-Lee_May2022-png.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>JosephineTeo</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/JosephineTeo.ashx?h=189&amp;w=140&amp;la=en&amp;hash=CD9AFDBB4E4645C2F37AE72AB6F4A31C</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>downloaded_images/JosephineTeo.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Indranee-Rajah_0</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/Indranee-Rajah_0.ashx?h=186&amp;w=138&amp;la=en&amp;hash=D24B4C987F46EA04B147EE0781795F69</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>downloaded_images/Indranee-Rajah_0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Maliki-jpg</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/Maliki-jpg.ashx?h=179&amp;w=140&amp;la=en&amp;hash=287AECEBB82C03243AAE0DFE04E06ED7</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>downloaded_images/Maliki-jpg.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Edwin-Tong-jpg</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/Edwin-Tong-jpg.ashx?h=189&amp;w=140&amp;la=en&amp;hash=FBA3EF127DE1CD4A9D8A0A74234428D2</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>downloaded_images/Edwin-Tong-jpg.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Tan-See-Leng-png</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/Tan-See-Leng-png.ashx?h=178&amp;w=139&amp;la=en&amp;hash=C0EDC45D6F328511D67149D5A6B12768</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>downloaded_images/Tan-See-Leng-png.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Chee-Hong-Tat_website-jpg</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>https://www.pmo.gov.sg/-/media/PMO/Cabinet/Chee-Hong-Tat_website-jpg.ashx?h=187&amp;w=138&amp;la=en&amp;hash=1EA229546CAD7A0BE135B5E9C369F00F</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>downloaded_images/Chee-Hong-Tat_website-jpg.jpg</t>
+          <t>downloaded_images/Mohd-Fahmi-Bin-Aliman.jpg</t>
         </is>
       </c>
     </row>

--- a/downloaded_images.xlsx
+++ b/downloaded_images.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,136 +441,391 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tr?id=3070145839930627&amp;ev=PageView&amp;noscript=1</t>
+          <t>logo_square-copy</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/tr?id=3070145839930627&amp;ev=PageView&amp;noscript=1</t>
+          <t>https://www3.wp.sg/wp-content/uploads/2015/08/logo_square-copy.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>downloaded_images/tr?id=3070145839930627&amp;ev=PageView&amp;noscript=1.jpg</t>
+          <t>downloaded_images/logo_square-copy.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PAP-Logo</t>
+          <t>logo_square2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://s3-ap-southeast-1.amazonaws.com/pap-dr-wp/2019/10/PAP-Logo.png</t>
+          <t>https://www3.wp.sg/wp-content/uploads/2016/11/logo_square2.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>downloaded_images/PAP-Logo.jpg</t>
+          <t>downloaded_images/logo_square2.jpg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mohd-Fahmi-Bin-Aliman-1</t>
+          <t>Sylvia-500px</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://s3-ap-southeast-1.amazonaws.com/pap-dr-wp/2020/06/Mohd-Fahmi-Bin-Aliman-1.jpg</t>
+          <t>https://www.wp.sg/wp-content/uploads/2021/01/Sylvia-500px.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>downloaded_images/Mohd-Fahmi-Bin-Aliman-1.jpg</t>
+          <t>downloaded_images/Sylvia-500px.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Edwin-Tong-Chun-Fai</t>
+          <t>Faisal-500px</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://s3-ap-southeast-1.amazonaws.com/pap-dr-wp/2020/04/Edwin-Tong-Chun-Fai.jpg</t>
+          <t>https://www.wp.sg/wp-content/uploads/2021/01/Faisal-500px.png</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>downloaded_images/Edwin-Tong-Chun-Fai.jpg</t>
+          <t>downloaded_images/Faisal-500px.jpg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Seah-Kian-Peng</t>
+          <t>pritam-500px</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://s3-ap-southeast-1.amazonaws.com/pap-dr-wp/2020/04/Seah-Kian-Peng.jpg</t>
+          <t>https://www.wp.sg/wp-content/uploads/2021/01/pritam-500px.png</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>downloaded_images/Seah-Kian-Peng.jpg</t>
+          <t>downloaded_images/pritam-500px.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dr-Tan-See-Leng-1</t>
+          <t>He-Ting-Ru-1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://s3-ap-southeast-1.amazonaws.com/pap-dr-wp/2020/06/Dr-Tan-See-Leng-1.jpg</t>
+          <t>https://www.wp.sg/wp-content/uploads/2020/10/He-Ting-Ru-1.png</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>downloaded_images/Dr-Tan-See-Leng-1.jpg</t>
+          <t>downloaded_images/He-Ting-Ru-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mohd-Fahmi-Bin-Aliman-1</t>
+          <t>Nathaniel-Koh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://s3-ap-southeast-1.amazonaws.com/pap-dr-wp/2020/06/Mohd-Fahmi-Bin-Aliman-1.jpg</t>
+          <t>https://www.wp.sg/wp-content/uploads/2022/12/Nathaniel-Koh.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>downloaded_images/Mohd-Fahmi-Bin-Aliman-1.jpg</t>
+          <t>downloaded_images/Nathaniel-Koh.jpg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mohd-Fahmi-Bin-Aliman</t>
+          <t>Dennis-500px</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://s3-ap-southeast-1.amazonaws.com/pap-dr-wp/2020/06/Mohd-Fahmi-Bin-Aliman.jpg</t>
+          <t>https://www.wp.sg/wp-content/uploads/2021/01/Dennis-500px.png</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>downloaded_images/Mohd-Fahmi-Bin-Aliman.jpg</t>
+          <t>downloaded_images/Dennis-500px.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ang-Boon-Yaw-e1670340396457</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.wp.sg/wp-content/uploads/2022/12/Ang-Boon-Yaw-e1670340396457.jpg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>downloaded_images/Ang-Boon-Yaw-e1670340396457.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>kenneth</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.wp.sg/wp-content/uploads/2015/08/kenneth.png</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>downloaded_images/kenneth.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tan-Kong-Soon-e1670340856926</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.wp.sg/wp-content/uploads/2022/12/Tan-Kong-Soon-e1670340856926.jpg</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>downloaded_images/Tan-Kong-Soon-e1670340856926.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chua-Kheng-Wee-1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.wp.sg/wp-content/uploads/2020/10/Chua-Kheng-Wee-1.png</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>downloaded_images/Chua-Kheng-Wee-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>gerald-500px</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.wp.sg/wp-content/uploads/2021/01/gerald-500px.png</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>downloaded_images/gerald-500px.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jamus-Jerome-Lim-Chee-Wui-2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.wp.sg/wp-content/uploads/2020/10/Jamus-Jerome-Lim-Chee-Wui-2.png</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>downloaded_images/Jamus-Jerome-Lim-Chee-Wui-2.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ltk</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.wp.sg/wp-content/uploads/2015/08/ltk.png</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>downloaded_images/ltk.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.wp.sg/wp-content/uploads/2015/08/GG.png</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>downloaded_images/GG.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pritam1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.wp.sg/wp-content/uploads/2015/08/pritam1.png</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>downloaded_images/pritam1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sylvia1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.wp.sg/wp-content/uploads/2015/08/sylvia1.png</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>downloaded_images/sylvia1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>faisal</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.wp.sg/wp-content/uploads/2015/08/faisal.png</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>downloaded_images/faisal.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chua-Kheng-Wee-1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.wp.sg/wp-content/uploads/2020/10/Chua-Kheng-Wee-1.png</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>downloaded_images/Chua-Kheng-Wee-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>dennis1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.wp.sg/wp-content/uploads/2015/08/dennis1.png</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>downloaded_images/dennis1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>He-Ting-Ru-1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.wp.sg/wp-content/uploads/2020/10/He-Ting-Ru-1.png</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>downloaded_images/He-Ting-Ru-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jamus-Jerome-Lim-Chee-Wui-2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.wp.sg/wp-content/uploads/2020/10/Jamus-Jerome-Lim-Chee-Wui-2.png</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>downloaded_images/Jamus-Jerome-Lim-Chee-Wui-2.jpg</t>
         </is>
       </c>
     </row>

--- a/downloaded_images.xlsx
+++ b/downloaded_images.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,391 +441,561 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>logo_square-copy</t>
+          <t>colored-cw-logo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www3.wp.sg/wp-content/uploads/2015/08/logo_square-copy.png</t>
+          <t>https://www.pmo.gov.sg/content/experience-fragments/corporate/language_masters/en/home/header/master/_jcr_content/root/container_630399545/container/image.coreimg.svg/1696847328087/colored-cw-logo.svg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>downloaded_images/logo_square-copy.jpg</t>
+          <t>downloaded_images/colored-cw-logo.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>logo_square2</t>
+          <t>white-cw-logo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www3.wp.sg/wp-content/uploads/2016/11/logo_square2.png</t>
+          <t>https://www.pmo.gov.sg/content/experience-fragments/corporate/language_masters/en/home/header/master/_jcr_content/root/container_630399545/container/image_801422721.coreimg.svg/1696847354030/white-cw-logo.svg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>downloaded_images/logo_square2.jpg</t>
+          <t>downloaded_images/white-cw-logo.jpg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sylvia-500px</t>
+          <t>EMA-Home-Trio-EMA-Thumbnail</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2021/01/Sylvia-500px.png</t>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/home-page/home-page-images/EMA-Home-Trio-EMA-Thumbnail.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>downloaded_images/Sylvia-500px.jpg</t>
+          <t>downloaded_images/EMA-Home-Trio-EMA-Thumbnail.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Faisal-500px</t>
+          <t>EMA-Join-Us-Scholarships</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2021/01/Faisal-500px.png</t>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/header-assets/EMA-Join-Us-Scholarships.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>downloaded_images/Faisal-500px.jpg</t>
+          <t>downloaded_images/EMA-Join-Us-Scholarships.jpg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pritam-500px</t>
+          <t>EMA-Our-Energy-Story-RPG-Thumbnail</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2021/01/pritam-500px.png</t>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/our-energy-story/energy-supply/EMA-Our-Energy-Story-RPG-Thumbnail.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>downloaded_images/pritam-500px.jpg</t>
+          <t>downloaded_images/EMA-Our-Energy-Story-RPG-Thumbnail.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>He-Ting-Ru-1</t>
+          <t>20231024-Media-Factsheet-Asset-Twin</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2020/10/He-Ting-Ru-1.png</t>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/news/media-images/20231024-Media-Factsheet-Asset-Twin.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>downloaded_images/He-Ting-Ru-1.jpg</t>
+          <t>downloaded_images/20231024-Media-Factsheet-Asset-Twin.jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nathaniel-Koh</t>
+          <t>20231024-Media-Release-Residential-Demand-Response-Pilot</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2022/12/Nathaniel-Koh.jpg</t>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/news/media-images/20231024-Media-Release-Residential-Demand-Response-Pilot.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>downloaded_images/Nathaniel-Koh.jpg</t>
+          <t>downloaded_images/20231024-Media-Release-Residential-Demand-Response-Pilot.jpg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dennis-500px</t>
+          <t>buying-electricity</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2021/01/Dennis-500px.png</t>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/consumer-information/electricity/buying-electricity.png</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>downloaded_images/Dennis-500px.jpg</t>
+          <t>downloaded_images/buying-electricity.jpg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ang-Boon-Yaw-e1670340396457</t>
+          <t>electrical-safety</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2022/12/Ang-Boon-Yaw-e1670340396457.jpg</t>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/consumer-information/electricity/electrical-safety.png</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>downloaded_images/Ang-Boon-Yaw-e1670340396457.jpg</t>
+          <t>downloaded_images/electrical-safety.jpg</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>kenneth</t>
+          <t>light%20graph</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2015/08/kenneth.png</t>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/home-page/home-page-images/light%20graph.jpg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>downloaded_images/kenneth.jpg</t>
+          <t>downloaded_images/light%20graph.jpg</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tan-Kong-Soon-e1670340856926</t>
+          <t>EMA-Worker-Licences</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2022/12/Tan-Kong-Soon-e1670340856926.jpg</t>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/header-assets/EMA-Worker-Licences.jpg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>downloaded_images/Tan-Kong-Soon-e1670340856926.jpg</t>
+          <t>downloaded_images/EMA-Worker-Licences.jpg</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chua-Kheng-Wee-1</t>
+          <t>EMA-Feature-Stories-Energy-Efficiency</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2020/10/Chua-Kheng-Wee-1.png</t>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/news/feature-stories/power-up-with-5-energy-saving-tips/EMA-Feature-Stories-Energy-Efficiency.jpg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>downloaded_images/Chua-Kheng-Wee-1.jpg</t>
+          <t>downloaded_images/EMA-Feature-Stories-Energy-Efficiency.jpg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>gerald-500px</t>
+          <t>EMA-Feature-Stories-Solar-stock-image</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2021/01/gerald-500px.png</t>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/news/feature-stories/sunny-side-up-five-things-you-may-not-know-about-solar-energy-in-singapore/EMA-Feature-Stories-Solar-stock-image.jpg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>downloaded_images/gerald-500px.jpg</t>
+          <t>downloaded_images/EMA-Feature-Stories-Solar-stock-image.jpg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jamus-Jerome-Lim-Chee-Wui-2</t>
+          <t>20240416-Media-Releases-EMA-JERA-Cooperation</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2020/10/Jamus-Jerome-Lim-Chee-Wui-2.png</t>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/news/media-images/20240416-Media-Releases-EMA-JERA-Cooperation.jpg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>downloaded_images/Jamus-Jerome-Lim-Chee-Wui-2.jpg</t>
+          <t>downloaded_images/20240416-Media-Releases-EMA-JERA-Cooperation.jpg</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ltk</t>
+          <t>20231026-Media-Release-New-Emission-Standards-for-Power-Generation-Units</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2015/08/ltk.png</t>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/news/media-images/20231026-Media-Release-New-Emission-Standards-for-Power-Generation-Units.jpg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>downloaded_images/ltk.jpg</t>
+          <t>downloaded_images/20231026-Media-Release-New-Emission-Standards-for-Power-Generation-Units.jpg</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>Buying-Gas</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2015/08/GG.png</t>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/consumer-information/gas/Buying-Gas.png</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>downloaded_images/GG.jpg</t>
+          <t>downloaded_images/Buying-Gas.jpg</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pritam1</t>
+          <t>ema-board-chairman-richard-lim</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2015/08/pritam1.png</t>
+          <t>https://www.pmo.gov.sg/content/corporate/language-masters/en/home/about-ema/who-we-are/board-members/_jcr_content/root/container/container/container_copy/teaser.coreimg.jpeg/1712564547585/ema-board-chairman-richard-lim.jpeg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>downloaded_images/pritam1.jpg</t>
+          <t>downloaded_images/ema-board-chairman-richard-lim.jpg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sylvia1</t>
+          <t>ema-board-member-chua-kee-chaing</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2015/08/sylvia1.png</t>
+          <t>https://www.pmo.gov.sg/content/corporate/language-masters/en/home/about-ema/who-we-are/board-members/_jcr_content/root/container/container/container/teaser_2010713034.coreimg.jpeg/1710833525565/ema-board-member-chua-kee-chaing.jpeg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>downloaded_images/sylvia1.jpg</t>
+          <t>downloaded_images/ema-board-member-chua-kee-chaing.jpg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>faisal</t>
+          <t>ema-board-member-ngiam-shih-chun</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2015/08/faisal.png</t>
+          <t>https://www.pmo.gov.sg/content/corporate/language-masters/en/home/about-ema/who-we-are/board-members/_jcr_content/root/container/container/container_996911996/teaser.coreimg.jpeg/1710833537240/ema-board-member-ngiam-shih-chun.jpeg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>downloaded_images/faisal.jpg</t>
+          <t>downloaded_images/ema-board-member-ngiam-shih-chun.jpg</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chua-Kheng-Wee-1</t>
+          <t>ema-board-member-lim-pek-suat</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2020/10/Chua-Kheng-Wee-1.png</t>
+          <t>https://www.pmo.gov.sg/content/corporate/language-masters/en/home/about-ema/who-we-are/board-members/_jcr_content/root/container/container/container_996911996_/teaser.coreimg.jpeg/1710833546346/ema-board-member-lim-pek-suat.jpeg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>downloaded_images/Chua-Kheng-Wee-1.jpg</t>
+          <t>downloaded_images/ema-board-member-lim-pek-suat.jpg</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>dennis1</t>
+          <t>ema-board-member-paula-conboy</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2015/08/dennis1.png</t>
+          <t>https://www.pmo.gov.sg/content/corporate/language-masters/en/home/about-ema/who-we-are/board-members/_jcr_content/root/container/container/container_copy_1237562308/teaser.coreimg.jpeg/1710833555812/ema-board-member-paula-conboy.jpeg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>downloaded_images/dennis1.jpg</t>
+          <t>downloaded_images/ema-board-member-paula-conboy.jpg</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>He-Ting-Ru-1</t>
+          <t>ema-board-member-dipti-srinivasan</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2020/10/He-Ting-Ru-1.png</t>
+          <t>https://www.pmo.gov.sg/content/corporate/language-masters/en/home/about-ema/who-we-are/board-members/_jcr_content/root/container/container/container_copy_copy/teaser.coreimg.jpeg/1710833566007/ema-board-member-dipti-srinivasan.jpeg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>downloaded_images/He-Ting-Ru-1.jpg</t>
+          <t>downloaded_images/ema-board-member-dipti-srinivasan.jpg</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jamus-Jerome-Lim-Chee-Wui-2</t>
+          <t>ema-board-member-ngien-hoon-ping</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.wp.sg/wp-content/uploads/2020/10/Jamus-Jerome-Lim-Chee-Wui-2.png</t>
+          <t>https://www.pmo.gov.sg/content/corporate/language-masters/en/home/about-ema/who-we-are/board-members/_jcr_content/root/container/container/container_copy_42138/teaser.coreimg.jpeg/1710833575699/ema-board-member-ngien-hoon-ping.jpeg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>downloaded_images/Jamus-Jerome-Lim-Chee-Wui-2.jpg</t>
+          <t>downloaded_images/ema-board-member-ngien-hoon-ping.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ema-board-member-wong-kuan-hong</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.pmo.gov.sg/content/corporate/language-masters/en/home/about-ema/who-we-are/board-members/_jcr_content/root/container/container/container_copy_copy_/teaser.coreimg.jpeg/1710833584504/ema-board-member-wong-kuan-hong.jpeg</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>downloaded_images/ema-board-member-wong-kuan-hong.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ema-board-member-tan-chuan-thye</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.pmo.gov.sg/content/corporate/language-masters/en/home/about-ema/who-we-are/board-members/_jcr_content/root/container/container/container_copy_1082679103/teaser.coreimg.jpeg/1710833592593/ema-board-member-tan-chuan-thye.jpeg</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>downloaded_images/ema-board-member-tan-chuan-thye.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ema-board-member-abdul-wahab</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.pmo.gov.sg/content/corporate/language-masters/en/home/about-ema/who-we-are/board-members/_jcr_content/root/container/container/container_copy_copy_1193730076/teaser.coreimg.jpeg/1710833602943/ema-board-member-abdul-wahab.jpeg</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>downloaded_images/ema-board-member-abdul-wahab.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ema-board-member-julian-wright</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.pmo.gov.sg/content/corporate/language-masters/en/home/about-ema/who-we-are/board-members/_jcr_content/root/container/container/container_copy_1031155836/teaser.coreimg.jpeg/1710833613867/ema-board-member-julian-wright.jpeg</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>downloaded_images/ema-board-member-julian-wright.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/footer-icons/updated-footer-icons/facebook.png</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>downloaded_images/facebook.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/footer-icons/updated-footer-icons/linkedin.png</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>downloaded_images/linkedin.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>instagram</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/footer-icons/updated-footer-icons/instagram.png</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>downloaded_images/instagram.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>youtube</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/footer-icons/updated-footer-icons/youtube.png</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>downloaded_images/youtube.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/footer-icons/updated-footer-icons/X.png</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>downloaded_images/X.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Pre-Loader</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.pmo.gov.sg/content/dam/corporate/common-assets/Pre-Loader.gif</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>downloaded_images/Pre-Loader.jpg</t>
         </is>
       </c>
     </row>
